--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="Effect" sheetId="2" r:id="rId2"/>
     <sheet name="GridEffectType" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="FormType" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>##</t>
   </si>
@@ -155,6 +156,27 @@
   </si>
   <si>
     <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>full_name&amp;default=Scene.SceneType</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>主菜单场景</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>游戏主场景</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>战斗场景</t>
   </si>
 </sst>
 </file>
@@ -197,6 +219,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -206,7 +289,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,60 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,39 +343,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,60 +563,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +593,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -638,152 +660,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,9 +816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1188,7 +1207,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1203,7 +1222,7 @@
       </c>
     </row>
     <row r="4" ht="13.2" spans="2:6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1218,11 +1237,11 @@
       </c>
     </row>
     <row r="5" ht="13.2" spans="2:6">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,7 +1312,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1319,7 +1338,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1411,8 +1430,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1467,122 +1486,219 @@
     </row>
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>100</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>101</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="3:6">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>102</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="3:6">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>103</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="3:6">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>200</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="3:6">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>201</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="3:6">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>300</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="3:6">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>1001</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" ht="13.2" spans="3:6">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>1002</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" ht="13.2" spans="3:3">
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" ht="13.2" spans="3:3">
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="229" zoomScaleNormal="229" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="13.2" spans="3:6">
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="3:6">
+      <c r="C4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="3:6">
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>##</t>
   </si>
@@ -71,13 +71,19 @@
     <t>战斗单位</t>
   </si>
   <si>
-    <t>Effect.EffectType</t>
+    <t>full_name&amp;default=Effect.EffectType</t>
   </si>
   <si>
     <t>SelectEffect</t>
   </si>
   <si>
     <t>选择特效</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>攻击特效</t>
   </si>
   <si>
     <t>Effect.GridEffectType</t>
@@ -184,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,7 +219,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,8 +240,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,100 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -364,55 +370,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,49 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,55 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,11 +564,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +595,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,26 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,179 +661,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,15 +1259,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="21.9553571428571" customWidth="1"/>
+    <col min="2" max="2" width="29.8214285714286" customWidth="1"/>
     <col min="3" max="3" width="11.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="10.8482142857143" customWidth="1"/>
     <col min="6" max="6" width="9.78571428571429" customWidth="1"/>
@@ -1272,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1312,9 +1318,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1324,6 +1328,17 @@
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1392,31 +1407,31 @@
     </row>
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1446,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1445,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1487,114 +1502,114 @@
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="2:6">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>101</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="3:6">
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="3:6">
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4">
         <v>103</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="3:6">
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="3:6">
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4">
         <v>201</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="3:6">
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4">
         <v>300</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="3:6">
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>1001</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="13.2" spans="3:6">
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>1002</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" ht="13.2" spans="3:3">
@@ -1614,7 +1629,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="229" zoomScaleNormal="229" workbookViewId="0">
+    <sheetView zoomScale="229" zoomScaleNormal="229" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1628,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1669,35 +1684,35 @@
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="3:6">
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>##</t>
   </si>
@@ -149,7 +149,13 @@
     <t>ActionForm</t>
   </si>
   <si>
-    <t>行动指令列表</t>
+    <t>行动指令界面</t>
+  </si>
+  <si>
+    <t>SkillActionForm</t>
+  </si>
+  <si>
+    <t>技能指令界面</t>
   </si>
   <si>
     <t>StoryForm</t>
@@ -190,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,7 +225,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,30 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,7 +332,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,82 +360,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -370,121 +376,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,54 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,50 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,6 +595,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -647,17 +659,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,124 +672,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,22 +798,22 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,7 +1267,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+    <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1443,16 +1449,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="27.1160714285714" customWidth="1"/>
     <col min="3" max="3" width="14.5803571428571" customWidth="1"/>
+    <col min="6" max="6" width="16.0357142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1595,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="4">
-        <v>1001</v>
+        <v>301</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>45</v>
@@ -1606,17 +1613,28 @@
         <v>46</v>
       </c>
       <c r="E12" s="4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="3:3">
-      <c r="C13" s="4"/>
+    <row r="13" ht="13.2" spans="3:6">
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" ht="13.2" spans="3:3">
       <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="13.2" spans="3:3">
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1643,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1684,35 +1702,35 @@
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="3:6">
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>full_name&amp;default=Effect.EffectType</t>
   </si>
   <si>
-    <t>SelectEffect</t>
+    <t>Select</t>
   </si>
   <si>
     <t>选择特效</t>
@@ -196,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,9 +232,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,52 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,29 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -338,16 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,25 +376,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,127 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -605,26 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +609,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -658,159 +667,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1451,7 +1451,7 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>##</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>游戏提示界面</t>
+  </si>
+  <si>
+    <t>RoundSwitchForm</t>
+  </si>
+  <si>
+    <t>回合切换动画</t>
   </si>
   <si>
     <t>full_name&amp;default=Scene.SceneType</t>
@@ -197,9 +203,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,20 +239,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -276,6 +275,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -284,9 +291,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,38 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -340,14 +353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +382,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,43 +400,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +508,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,103 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,23 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,31 +604,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,153 +649,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1166,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1451,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1630,8 +1636,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="3:3">
-      <c r="C14" s="4"/>
+    <row r="14" ht="13.2" spans="3:6">
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1003</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" ht="13.2" spans="3:3">
       <c r="C15" s="4"/>
@@ -1661,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1702,35 +1716,35 @@
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="3:6">
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -104,16 +104,16 @@
     <t>full_name&amp;default=UI.FormType</t>
   </si>
   <si>
-    <t>DialogForm</t>
-  </si>
-  <si>
-    <t>弹出框</t>
-  </si>
-  <si>
     <t>MenuForm</t>
   </si>
   <si>
-    <t>主菜单</t>
+    <t>菜单界面</t>
+  </si>
+  <si>
+    <t>GameSetForm</t>
+  </si>
+  <si>
+    <t>游戏设置界面</t>
   </si>
   <si>
     <t>SaveForm</t>
@@ -202,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -231,14 +231,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +298,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -261,46 +338,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,54 +361,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,8 +579,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,22 +628,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,21 +640,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,11 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,148 +678,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1455,10 +1455,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1512,37 +1512,37 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="3:6">
+    <row r="5" ht="13.2" spans="2:6">
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="4">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>33</v>
@@ -1647,8 +1647,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="3:3">
-      <c r="C15" s="4"/>
+    <row r="16" ht="13.2" spans="3:3">
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>##</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>回合切换动画</t>
+  </si>
+  <si>
+    <t>GridUnitInfoForm</t>
+  </si>
+  <si>
+    <t>单位信息界面</t>
   </si>
   <si>
     <t>full_name&amp;default=Scene.SceneType</t>
@@ -202,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -231,14 +237,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,23 +305,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +337,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -306,6 +351,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -314,54 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,19 +388,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +466,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,151 +514,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,8 +585,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +640,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,67 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,148 +684,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,7 +1464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1645,6 +1651,17 @@
       </c>
       <c r="F14" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>1004</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="13.2" spans="3:3">
@@ -1675,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1716,35 +1733,35 @@
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="3:6">
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>##</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>单位信息界面</t>
+  </si>
+  <si>
+    <t>TextBubbleForm</t>
   </si>
   <si>
     <t>full_name&amp;default=Scene.SceneType</t>
@@ -208,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,7 +240,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,15 +292,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,22 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -298,10 +324,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,66 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -388,19 +391,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,163 +445,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +582,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,16 +643,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +674,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -655,177 +682,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1467,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
@@ -1664,8 +1667,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="3:3">
-      <c r="C16" s="4"/>
+    <row r="16" ht="13.2" spans="3:5">
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>1005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1692,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1733,35 +1741,35 @@
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="3:6">
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="3:6">
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="Effect" sheetId="2" r:id="rId2"/>
     <sheet name="GridEffectType" sheetId="3" r:id="rId3"/>
     <sheet name="FormType" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Scene" sheetId="5" r:id="rId5"/>
+    <sheet name="Battle" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>##</t>
   </si>
@@ -204,6 +205,42 @@
   </si>
   <si>
     <t>战斗场景</t>
+  </si>
+  <si>
+    <t>Battle.TalentType</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Battle.EffectType</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Battle.SkillType</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Cure</t>
   </si>
 </sst>
 </file>
@@ -211,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,6 +280,21 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,6 +306,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -262,33 +352,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,68 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,37 +428,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,25 +572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,115 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +635,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,30 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -653,21 +705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,145 +724,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -836,13 +873,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="19" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1176,7 +1213,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1189,49 +1226,49 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="6" t="s">
@@ -1294,49 +1331,49 @@
     <col min="6" max="6" width="9.78571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="6"/>
@@ -1382,49 +1419,49 @@
     <col min="2" max="2" width="18.9910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="13.2" spans="2:6">
       <c r="B3" s="4" t="s">
@@ -1466,7 +1503,7 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1477,49 +1514,49 @@
     <col min="6" max="6" width="16.0357142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
@@ -1687,7 +1724,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="229" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1695,49 +1732,49 @@
     <col min="2" max="2" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="13.2" spans="3:6">
       <c r="C3" s="4" t="s">
@@ -1770,6 +1807,173 @@
       </c>
       <c r="F5" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="16.9642857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.3571428571429" customWidth="1"/>
+    <col min="5" max="5" width="13.3125" customWidth="1"/>
+    <col min="6" max="6" width="21.5803571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/导表工具/Excels/__enums__.xlsx
+++ b/导表工具/Excels/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="11880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -19,44 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags&amp;default=false</t>
+  </si>
+  <si>
+    <t>unique&amp;default=true</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>枚举名</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>Entity.EntityType</t>
   </si>
   <si>
@@ -72,7 +69,7 @@
     <t>战斗单位</t>
   </si>
   <si>
-    <t>full_name&amp;default=Effect.EffectType</t>
+    <t>Effect.EffectType</t>
   </si>
   <si>
     <t>Select</t>
@@ -102,7 +99,7 @@
     <t>出生点特效</t>
   </si>
   <si>
-    <t>full_name&amp;default=UI.FormType</t>
+    <t>UI.FormType</t>
   </si>
   <si>
     <t>MenuForm</t>
@@ -186,7 +183,7 @@
     <t>TextBubbleForm</t>
   </si>
   <si>
-    <t>full_name&amp;default=Scene.SceneType</t>
+    <t>Scene.SceneType</t>
   </si>
   <si>
     <t>Menu</t>
@@ -250,8 +247,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -284,25 +281,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,14 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,22 +319,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -362,7 +327,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,16 +372,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,18 +402,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,10 +637,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -660,21 +683,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,161 +716,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -879,8 +876,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,23 +1207,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A1:$XFD2"/>
+      <selection activeCell="A3" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.7053571428571" customWidth="1"/>
-    <col min="5" max="5" width="18.3303571428571" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="2" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.7053571428571" customWidth="1"/>
+    <col min="7" max="7" width="18.3303571428571" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,75 +1236,102 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:8">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="2:6">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="2:6">
+    </row>
+    <row r="5" ht="13.2" spans="2:8">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="2:8">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1317,26 +1341,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="29.8214285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.8482142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.78571428571429" customWidth="1"/>
+    <col min="2" max="2" width="19.7053571428571" customWidth="1"/>
+    <col min="5" max="5" width="11.1071428571429" customWidth="1"/>
+    <col min="6" max="6" width="10.8482142857143" customWidth="1"/>
+    <col min="8" max="8" width="9.78571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1344,62 +1368,90 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:8">
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="5" spans="5:8">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1408,18 +1460,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="18.9910714285714" customWidth="1"/>
+    <col min="2" max="2" width="19.9017857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,67 +1484,91 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="13.2" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:8">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" ht="13.2" spans="2:8">
+      <c r="B5" s="4"/>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" ht="13.2" spans="2:6">
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1501,25 +1577,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="27.1160714285714" customWidth="1"/>
-    <col min="3" max="3" width="14.5803571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.0357142857143" customWidth="1"/>
+    <col min="5" max="5" width="14.5803571428571" customWidth="1"/>
+    <col min="8" max="8" width="16.0357142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1527,192 +1603,221 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" ht="13.2" spans="2:8">
+      <c r="B5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" ht="13.2" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="6" ht="13.2" spans="2:8">
+      <c r="B6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" ht="13.2" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="7" ht="13.2" spans="5:8">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" ht="13.2" spans="3:6">
-      <c r="C6" s="4" t="s">
+      <c r="G7" s="4">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4">
-        <v>102</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="8" ht="13.2" spans="5:8">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" ht="13.2" spans="3:6">
-      <c r="C7" s="4" t="s">
+      <c r="G8" s="4">
+        <v>103</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4">
-        <v>103</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="9" ht="13.2" spans="5:8">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" ht="13.2" spans="3:6">
-      <c r="C8" s="4" t="s">
+      <c r="G9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4">
-        <v>200</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    </row>
+    <row r="10" ht="13.2" spans="5:8">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" ht="13.2" spans="3:6">
-      <c r="C9" s="4" t="s">
+      <c r="G10" s="4">
+        <v>201</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4">
-        <v>201</v>
-      </c>
-      <c r="F9" s="4" t="s">
+    </row>
+    <row r="11" ht="13.2" spans="5:8">
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" ht="13.2" spans="3:6">
-      <c r="C10" s="4" t="s">
+      <c r="G11" s="4">
+        <v>300</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4">
-        <v>300</v>
-      </c>
-      <c r="F10" s="4" t="s">
+    </row>
+    <row r="12" ht="13.2" spans="5:8">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" ht="13.2" spans="3:6">
-      <c r="C11" s="4" t="s">
+      <c r="G12" s="4">
+        <v>301</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4">
-        <v>301</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    </row>
+    <row r="13" ht="13.2" spans="5:8">
+      <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" ht="13.2" spans="3:6">
-      <c r="C12" s="4" t="s">
+      <c r="G13" s="4">
+        <v>1001</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F12" s="4" t="s">
+    </row>
+    <row r="14" ht="13.2" spans="5:8">
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" ht="13.2" spans="3:6">
-      <c r="C13" s="4" t="s">
+      <c r="G14" s="4">
+        <v>1002</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F13" s="4" t="s">
+    </row>
+    <row r="15" ht="13.2" spans="5:8">
+      <c r="E15" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" ht="13.2" spans="3:6">
-      <c r="C14" s="4" t="s">
+      <c r="G15">
+        <v>1003</v>
+      </c>
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="E14">
-        <v>1003</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
+      <c r="G16">
+        <v>1004</v>
+      </c>
+      <c r="H16" t="s">
         <v>52</v>
       </c>
-      <c r="E15">
-        <v>1004</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="17" ht="13.2" spans="5:7">
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" ht="13.2" spans="3:5">
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16">
+      <c r="G17">
         <v>1005</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1721,23 +1826,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="229" zoomScaleNormal="229" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1745,71 +1850,100 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="13.2" spans="3:6">
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:8">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="5" ht="13.2" spans="5:8">
+      <c r="E5" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" ht="13.2" spans="3:6">
-      <c r="C4" s="4" t="s">
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="6" ht="13.2" spans="5:8">
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" ht="13.2" spans="3:6">
-      <c r="C5" s="4" t="s">
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1818,22 +1952,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="16.9642857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.8303571428571" customWidth="1"/>
-    <col min="4" max="4" width="12.3571428571429" customWidth="1"/>
-    <col min="5" max="5" width="13.3125" customWidth="1"/>
-    <col min="6" max="6" width="21.5803571428571" customWidth="1"/>
+    <col min="3" max="3" width="16.3482142857143" customWidth="1"/>
+    <col min="4" max="4" width="16.5178571428571" customWidth="1"/>
+    <col min="5" max="5" width="8.60714285714286" customWidth="1"/>
+    <col min="6" max="6" width="8.52678571428571" customWidth="1"/>
+    <col min="7" max="7" width="8.16964285714286" customWidth="1"/>
+    <col min="8" max="8" width="7.83035714285714" customWidth="1"/>
+    <col min="9" max="9" width="4.95535714285714" customWidth="1"/>
+    <col min="10" max="10" width="8.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,137 +1984,145 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="E3">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8">
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9">
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
